--- a/hardware/PCB/boards_BOM.xlsx
+++ b/hardware/PCB/boards_BOM.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="181">
   <si>
     <t>Qty</t>
   </si>
@@ -565,6 +565,9 @@
   </si>
   <si>
     <t>Root</t>
+  </si>
+  <si>
+    <t>TH_0.1-LED</t>
   </si>
 </sst>
 </file>
@@ -2361,7 +2364,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2371,6 +2374,7 @@
     <col min="5" max="5" width="12.33203125" customWidth="1"/>
     <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.44140625" customWidth="1"/>
+    <col min="10" max="10" width="21.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -2659,6 +2663,9 @@
       <c r="F13" t="s">
         <v>166</v>
       </c>
+      <c r="J13" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -2678,6 +2685,9 @@
       </c>
       <c r="F14" t="s">
         <v>166</v>
+      </c>
+      <c r="J14" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
